--- a/formatted/candidates/candidates-1/candidates-profiles.xlsx
+++ b/formatted/candidates/candidates-1/candidates-profiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32A48E8-9E3D-9941-9933-AFD4C9D57F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C13F3-BFF5-5345-B53C-3F7601D291ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="2820" windowWidth="56080" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3052,7 +3052,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C187" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
